--- a/Data Mix/ResultatExcel/NouvelleAquitaine.xlsx
+++ b/Data Mix/ResultatExcel/NouvelleAquitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>9828102</v>
       </c>
       <c r="D2" t="n">
+        <v>11271257</v>
+      </c>
+      <c r="E2" t="n">
         <v>378586</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9591748</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>121825</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>47028</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>929447</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>202623</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>18792100</v>
       </c>
       <c r="D3" t="n">
+        <v>21887161</v>
+      </c>
+      <c r="E3" t="n">
         <v>700294</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>18336141</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>261376</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>131844</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2069251</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>388255</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>27445380</v>
       </c>
       <c r="D4" t="n">
+        <v>32399506</v>
+      </c>
+      <c r="E4" t="n">
         <v>1017591</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>27139277</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>394237</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>267806</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2978545</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>602050</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>34528619</v>
       </c>
       <c r="D5" t="n">
+        <v>39488961</v>
+      </c>
+      <c r="E5" t="n">
         <v>1090018</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>32683713</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>506675</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>431952</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>3994739</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>781864</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>41211420</v>
       </c>
       <c r="D6" t="n">
+        <v>45757804</v>
+      </c>
+      <c r="E6" t="n">
         <v>1133857</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>37406289</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>588728</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>598677</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>5062331</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>967922</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>47026582</v>
       </c>
       <c r="D7" t="n">
+        <v>52789627</v>
+      </c>
+      <c r="E7" t="n">
         <v>1175888</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>43040220</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>663396</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>779279</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>5973519</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1157325</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>53478642</v>
       </c>
       <c r="D8" t="n">
+        <v>59300443</v>
+      </c>
+      <c r="E8" t="n">
         <v>1217812</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>48434086</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>754789</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1016329</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>6530855</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1346572</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>59584109</v>
       </c>
       <c r="D9" t="n">
+        <v>66507357</v>
+      </c>
+      <c r="E9" t="n">
         <v>1256749</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>54940570</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>815295</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1230171</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>6721322</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1543250</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>65518016</v>
       </c>
       <c r="D10" t="n">
+        <v>74613221</v>
+      </c>
+      <c r="E10" t="n">
         <v>1299172</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>62370425</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>895414</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1387463</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>6936545</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1724202</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>71926758</v>
       </c>
       <c r="D11" t="n">
+        <v>83777094</v>
+      </c>
+      <c r="E11" t="n">
         <v>1389894</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>70630430</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1024242</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1506792</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>7340988</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1884748</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>80157613</v>
       </c>
       <c r="D12" t="n">
+        <v>92289134</v>
+      </c>
+      <c r="E12" t="n">
         <v>1545956</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>77479512</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1208888</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1566361</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>8406775</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2081642</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>89535387</v>
       </c>
       <c r="D13" t="n">
+        <v>99976552</v>
+      </c>
+      <c r="E13" t="n">
         <v>1712852</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>83821851</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1411184</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1650856</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>9116764</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>2263045</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>599032728</v>
       </c>
       <c r="D14" t="n">
+        <v>680058117</v>
+      </c>
+      <c r="E14" t="n">
         <v>13918669</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>565874262</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>8646049</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>10614558</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>66061081</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>14943498</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>98538013</v>
       </c>
       <c r="D15" t="n">
+        <v>109355344</v>
+      </c>
+      <c r="E15" t="n">
         <v>1868624</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>91561562</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1608980</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1712985</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>10157155</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>2446038</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>106904071</v>
       </c>
       <c r="D16" t="n">
+        <v>118877861</v>
+      </c>
+      <c r="E16" t="n">
         <v>2044154</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>99178446</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1865988</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1809297</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>11347141</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2632835</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>114903901</v>
       </c>
       <c r="D17" t="n">
+        <v>129217569</v>
+      </c>
+      <c r="E17" t="n">
         <v>2228647</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>107756514</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1981190</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1995922</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>12448532</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>2806764</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>121369903</v>
       </c>
       <c r="D18" t="n">
+        <v>138548400</v>
+      </c>
+      <c r="E18" t="n">
         <v>2277714</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>115770069</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2098423</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2210633</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>13199257</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>2992304</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>127564420</v>
       </c>
       <c r="D19" t="n">
+        <v>146990805</v>
+      </c>
+      <c r="E19" t="n">
         <v>2319623</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>122813119</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2241748</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>2456329</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>13963310</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>3196676</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>133420111</v>
       </c>
       <c r="D20" t="n">
+        <v>156134451</v>
+      </c>
+      <c r="E20" t="n">
         <v>2357275</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>130771572</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2346635</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>2746200</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>14512661</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>3400108</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>139656389</v>
       </c>
       <c r="D21" t="n">
+        <v>164076092</v>
+      </c>
+      <c r="E21" t="n">
         <v>2394687</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>137658550</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2424313</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>3011265</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>14994836</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>3592441</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>145430062</v>
       </c>
       <c r="D22" t="n">
+        <v>169433589</v>
+      </c>
+      <c r="E22" t="n">
         <v>2430728</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>142119324</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2498804</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3282906</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>15313858</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>3787969</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>151343774</v>
       </c>
       <c r="D23" t="n">
+        <v>175897911</v>
+      </c>
+      <c r="E23" t="n">
         <v>2461343</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>147713643</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2597581</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>3567863</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>15574603</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>3982878</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>157633442</v>
       </c>
       <c r="D24" t="n">
+        <v>182553233</v>
+      </c>
+      <c r="E24" t="n">
         <v>2510718</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>153407883</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>2720563</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>3792786</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>15927801</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>4193482</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>164812645</v>
       </c>
       <c r="D25" t="n">
+        <v>190812097</v>
+      </c>
+      <c r="E25" t="n">
         <v>2673698</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>160460805</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>2899663</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3907795</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>16454953</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>4415183</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>174004603</v>
       </c>
       <c r="D26" t="n">
+        <v>200744720</v>
+      </c>
+      <c r="E26" t="n">
         <v>2857451</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>168838313</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3052473</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>3996414</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>17358084</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>4641985</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>2833646790</v>
       </c>
       <c r="D27" t="n">
+        <v>3242758306</v>
+      </c>
+      <c r="E27" t="n">
         <v>56262000</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2709798324</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>45628459</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>55719511</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>303374353</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>71975659</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>183792100</v>
       </c>
       <c r="D28" t="n">
+        <v>210462554</v>
+      </c>
+      <c r="E28" t="n">
         <v>3073321</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>177039123</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>3248307</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>4106165</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>18114279</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>4881359</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>192803215</v>
       </c>
       <c r="D29" t="n">
+        <v>218809406</v>
+      </c>
+      <c r="E29" t="n">
         <v>3279765</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>183740373</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>3446346</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>4280837</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>18958694</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>5103391</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>201070123</v>
       </c>
       <c r="D30" t="n">
+        <v>227683413</v>
+      </c>
+      <c r="E30" t="n">
         <v>3482827</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>190701045</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>3629993</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>4509568</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>20013760</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>5346220</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>207553988</v>
       </c>
       <c r="D31" t="n">
+        <v>235657518</v>
+      </c>
+      <c r="E31" t="n">
         <v>3563021</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>197089857</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3767181</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>4881948</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>20818220</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>5537291</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>213404040</v>
       </c>
       <c r="D32" t="n">
+        <v>241398168</v>
+      </c>
+      <c r="E32" t="n">
         <v>3590600</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>201247081</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3902969</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>5270347</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>21612675</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>5774496</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>219323930</v>
       </c>
       <c r="D33" t="n">
+        <v>246657018</v>
+      </c>
+      <c r="E33" t="n">
         <v>3617378</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>205290487</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>3995297</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>5741096</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>21997147</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>6015613</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>225864548</v>
       </c>
       <c r="D34" t="n">
+        <v>252502581</v>
+      </c>
+      <c r="E34" t="n">
         <v>3677000</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>210108663</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>4103013</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>6196524</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>22154631</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>6262750</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>231745936</v>
       </c>
       <c r="D35" t="n">
+        <v>259324805</v>
+      </c>
+      <c r="E35" t="n">
         <v>3713338</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>216036829</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>4196964</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>6608608</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>22283169</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>6485897</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>237631394</v>
       </c>
       <c r="D36" t="n">
+        <v>267479681</v>
+      </c>
+      <c r="E36" t="n">
         <v>3782430</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>223063548</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>4351824</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>6964015</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>22600146</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>6717718</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>244558547</v>
       </c>
       <c r="D37" t="n">
+        <v>277157493</v>
+      </c>
+      <c r="E37" t="n">
         <v>3884158</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>231683824</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>4501632</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>7247377</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>22928696</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>6911806</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>251844535</v>
       </c>
       <c r="D38" t="n">
+        <v>287215185</v>
+      </c>
+      <c r="E38" t="n">
         <v>4092209</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>240646735</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>4678728</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>7441728</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>23203563</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>7152222</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>260142245</v>
       </c>
       <c r="D39" t="n">
+        <v>297326155</v>
+      </c>
+      <c r="E39" t="n">
         <v>4299567</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>249540264</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>4901358</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>7632458</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>23533960</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>7418548</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>8337028181</v>
       </c>
       <c r="D40" t="n">
+        <v>9507190589</v>
+      </c>
+      <c r="E40" t="n">
         <v>156579614</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>7945784477</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139980530</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>182319693</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>864967646</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>217558629</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>269138130</v>
       </c>
       <c r="D41" t="n">
+        <v>308576790</v>
+      </c>
+      <c r="E41" t="n">
         <v>4549591</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>258927086</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>5157765</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>7783801</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>24478335</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>7680212</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>277593675</v>
       </c>
       <c r="D42" t="n">
+        <v>318237211</v>
+      </c>
+      <c r="E42" t="n">
         <v>4790930</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>266339990</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>5409220</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>8017791</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>25777008</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>7902272</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>286188987</v>
       </c>
       <c r="D43" t="n">
+        <v>327826255</v>
+      </c>
+      <c r="E43" t="n">
         <v>5020462</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>273681051</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>5656001</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>8404747</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>26887341</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>8176653</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>293335836</v>
       </c>
       <c r="D44" t="n">
+        <v>335666278</v>
+      </c>
+      <c r="E44" t="n">
         <v>5133001</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>279625928</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>5776232</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>8837253</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>27868796</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>8425068</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>299500325</v>
       </c>
       <c r="D45" t="n">
+        <v>343923057</v>
+      </c>
+      <c r="E45" t="n">
         <v>5186126</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>286029980</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5911878</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>9339814</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>28790382</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>8664877</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>305316786</v>
       </c>
       <c r="D46" t="n">
+        <v>352405140</v>
+      </c>
+      <c r="E46" t="n">
         <v>5240818</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>292583207</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>6004308</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>9815180</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>29859390</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>8902237</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>311675863</v>
       </c>
       <c r="D47" t="n">
+        <v>360466531</v>
+      </c>
+      <c r="E47" t="n">
         <v>5293720</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>299401988</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>6087878</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>10391054</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>30151908</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>9139983</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>317901717</v>
       </c>
       <c r="D48" t="n">
+        <v>368133043</v>
+      </c>
+      <c r="E48" t="n">
         <v>5351206</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>306006590</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>6169744</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>10972221</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>30266045</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>9367237</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>323840734</v>
       </c>
       <c r="D49" t="n">
+        <v>374630631</v>
+      </c>
+      <c r="E49" t="n">
         <v>5399438</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>311478994</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6238131</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>11425164</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>30521314</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>9567590</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>330643006</v>
       </c>
       <c r="D50" t="n">
+        <v>383035690</v>
+      </c>
+      <c r="E50" t="n">
         <v>5507214</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>318884947</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>6366720</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>11837205</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>30722011</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>9717593</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>338594823</v>
       </c>
       <c r="D51" t="n">
+        <v>391614793</v>
+      </c>
+      <c r="E51" t="n">
         <v>5777977</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>326171620</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>6594513</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>12057898</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>31043606</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>9969179</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>347808013</v>
       </c>
       <c r="D52" t="n">
+        <v>400692215</v>
+      </c>
+      <c r="E52" t="n">
         <v>6131724</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>333907034</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>6749971</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>12266492</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>31411999</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>10224995</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>20375594257</v>
       </c>
       <c r="D53" t="n">
+        <v>23279588812</v>
+      </c>
+      <c r="E53" t="n">
         <v>376541435</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>19444607369</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>352083421</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>485788006</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>2077713427</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>542855154</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>358561704</v>
       </c>
       <c r="D54" t="n">
+        <v>410165861</v>
+      </c>
+      <c r="E54" t="n">
         <v>6528439</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>341688252</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>7002479</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>12475456</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>31951576</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>10519659</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>366524219</v>
       </c>
       <c r="D55" t="n">
+        <v>418003397</v>
+      </c>
+      <c r="E55" t="n">
         <v>6884110</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>347873648</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>7275024</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>12714142</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>32478107</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>10778366</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>374334641</v>
       </c>
       <c r="D56" t="n">
+        <v>428522282</v>
+      </c>
+      <c r="E56" t="n">
         <v>7257031</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>356161705</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>7512610</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>13073950</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>33452077</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>11064909</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>380937783</v>
       </c>
       <c r="D57" t="n">
+        <v>438350145</v>
+      </c>
+      <c r="E57" t="n">
         <v>7381830</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>364207655</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>7737964</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>13665405</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>34017555</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>11339736</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>387103097</v>
       </c>
       <c r="D58" t="n">
+        <v>447617647</v>
+      </c>
+      <c r="E58" t="n">
         <v>7459799</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>371774882</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7935981</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>14257962</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>34591427</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>11597596</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>393099746</v>
       </c>
       <c r="D59" t="n">
+        <v>454194025</v>
+      </c>
+      <c r="E59" t="n">
         <v>7523839</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>376916332</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>8092978</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>14849507</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>34944941</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>11866428</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>399347698</v>
       </c>
       <c r="D60" t="n">
+        <v>461431433</v>
+      </c>
+      <c r="E60" t="n">
         <v>7583776</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>382821256</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>8244323</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>15390574</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>35266696</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>12124808</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>405474831</v>
       </c>
       <c r="D61" t="n">
+        <v>468422125</v>
+      </c>
+      <c r="E61" t="n">
         <v>7649542</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>388632281</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>8358613</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>15968972</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>35417921</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>12394796</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>411475549</v>
       </c>
       <c r="D62" t="n">
+        <v>476641721</v>
+      </c>
+      <c r="E62" t="n">
         <v>7712110</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>395692451</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>8504620</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>16410678</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>35672769</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>12649093</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>417932871</v>
       </c>
       <c r="D63" t="n">
+        <v>487075397</v>
+      </c>
+      <c r="E63" t="n">
         <v>7836498</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>404961962</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>8659030</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>16797072</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>35895823</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>12925012</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>426275276</v>
       </c>
       <c r="D64" t="n">
+        <v>498011787</v>
+      </c>
+      <c r="E64" t="n">
         <v>8129345</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>414474250</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>8873492</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>17066690</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>36276214</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>13191796</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>435933937</v>
       </c>
       <c r="D65" t="n">
+        <v>509584375</v>
+      </c>
+      <c r="E65" t="n">
         <v>8433025</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>424172745</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>9212361</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>17219210</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>37110482</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>13436552</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>45508189866</v>
       </c>
       <c r="D66" t="n">
+        <v>52057197819</v>
+      </c>
+      <c r="E66" t="n">
         <v>843462214</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>43458592157</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>801576317</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>1151465630</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>4572502442</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1229599059</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>444922125</v>
       </c>
       <c r="D67" t="n">
+        <v>521828339</v>
+      </c>
+      <c r="E67" t="n">
         <v>8774543</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>433688646</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>9665402</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>17361434</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>38640209</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>13698105</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>454371253</v>
       </c>
       <c r="D68" t="n">
+        <v>532858239</v>
+      </c>
+      <c r="E68" t="n">
         <v>9058233</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>442364061</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>10018353</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>17656784</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>39832885</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>13927923</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>463158060</v>
       </c>
       <c r="D69" t="n">
+        <v>543134919</v>
+      </c>
+      <c r="E69" t="n">
         <v>9313268</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>450088142</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>10462212</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>18107683</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>41024673</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>14138941</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>469693666</v>
       </c>
       <c r="D70" t="n">
+        <v>551141016</v>
+      </c>
+      <c r="E70" t="n">
         <v>9339849</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>456143346</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>10700295</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>18665923</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>41930452</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>14361151</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>475884428</v>
       </c>
       <c r="D71" t="n">
+        <v>559242708</v>
+      </c>
+      <c r="E71" t="n">
         <v>9376135</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>462324204</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>10872823</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>19330376</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>42707553</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>14631617</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>481695791</v>
       </c>
       <c r="D72" t="n">
+        <v>566938740</v>
+      </c>
+      <c r="E72" t="n">
         <v>9409218</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>468056398</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>11091048</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>20064780</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>43423348</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>14893948</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>488145078</v>
       </c>
       <c r="D73" t="n">
+        <v>575992095</v>
+      </c>
+      <c r="E73" t="n">
         <v>9442965</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>475535167</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>11226180</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>20873779</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>43746491</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>15167513</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>494407964</v>
       </c>
       <c r="D74" t="n">
+        <v>584685041</v>
+      </c>
+      <c r="E74" t="n">
         <v>9488874</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>482807551</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>11396726</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>21663028</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>43882345</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>15446517</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>500307804</v>
       </c>
       <c r="D75" t="n">
+        <v>593585272</v>
+      </c>
+      <c r="E75" t="n">
         <v>9531754</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>490306141</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>11598835</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>22343315</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>44103665</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>15701562</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>506915386</v>
       </c>
       <c r="D76" t="n">
+        <v>601653641</v>
+      </c>
+      <c r="E76" t="n">
         <v>9629092</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>497082171</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>11910262</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>22791790</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>44285545</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>15954781</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>514956707</v>
       </c>
       <c r="D77" t="n">
+        <v>612199216</v>
+      </c>
+      <c r="E77" t="n">
         <v>9964588</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>506198919</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>12244994</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>23073277</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>44492737</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>16224701</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>523529547</v>
       </c>
       <c r="D78" t="n">
+        <v>623263687</v>
+      </c>
+      <c r="E78" t="n">
         <v>10281278</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>515675342</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>12685365</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>23206869</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>44904382</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>16510451</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>96834367541</v>
       </c>
       <c r="D79" t="n">
+        <v>110980918551</v>
+      </c>
+      <c r="E79" t="n">
         <v>1800534225</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>92597454402</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>1737025129</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>2548070298</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>9657979169</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>2639855328</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>533783490</v>
       </c>
       <c r="D80" t="n">
+        <v>634584205</v>
+      </c>
+      <c r="E80" t="n">
         <v>10700166</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>525298616</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>13067949</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>23403068</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>45308759</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>16805647</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>541828500</v>
       </c>
       <c r="D81" t="n">
+        <v>645333089</v>
+      </c>
+      <c r="E81" t="n">
         <v>11054999</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>533982628</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>13413458</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>23839553</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>45970663</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>17071788</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>549599666</v>
       </c>
       <c r="D82" t="n">
+        <v>656098230</v>
+      </c>
+      <c r="E82" t="n">
         <v>11370944</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>542320338</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>13915905</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>24460604</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>46658905</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>17371534</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>556435456</v>
       </c>
       <c r="D83" t="n">
+        <v>665273129</v>
+      </c>
+      <c r="E83" t="n">
         <v>11395049</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>549742126</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>14177326</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>25089254</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>47229837</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>17639537</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>562829980</v>
       </c>
       <c r="D84" t="n">
+        <v>675365698</v>
+      </c>
+      <c r="E84" t="n">
         <v>11433095</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>557848773</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>14424096</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>25850514</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>47891432</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>17917788</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>568734596</v>
       </c>
       <c r="D85" t="n">
+        <v>684897185</v>
+      </c>
+      <c r="E85" t="n">
         <v>11470780</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>565636546</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>14640497</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>26649318</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>48353462</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>18146582</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>575202881</v>
       </c>
       <c r="D86" t="n">
+        <v>693847582</v>
+      </c>
+      <c r="E86" t="n">
         <v>11504705</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>573091472</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>14827848</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>27526633</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>48501731</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>18395193</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>581241292</v>
       </c>
       <c r="D87" t="n">
+        <v>700962194</v>
+      </c>
+      <c r="E87" t="n">
         <v>11532298</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>578805635</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>15003259</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>28336950</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>48620463</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>18663589</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>587017259</v>
       </c>
       <c r="D88" t="n">
+        <v>709510431</v>
+      </c>
+      <c r="E88" t="n">
         <v>11559361</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>585926195</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>15279538</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>29006993</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>48805107</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>18933237</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>593379502</v>
       </c>
       <c r="D89" t="n">
+        <v>719058637</v>
+      </c>
+      <c r="E89" t="n">
         <v>11647804</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>594182104</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>15610343</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>29418436</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>49022730</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>19177220</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>601578608</v>
       </c>
       <c r="D90" t="n">
+        <v>729299928</v>
+      </c>
+      <c r="E90" t="n">
         <v>11936398</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>602332497</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>16009772</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>29631896</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>49966605</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>19422760</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>610241041</v>
       </c>
       <c r="D91" t="n">
+        <v>739876658</v>
+      </c>
+      <c r="E91" t="n">
         <v>12227337</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>610259943</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>16532532</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>29834822</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>51351019</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>19671005</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>200530607353</v>
       </c>
       <c r="D92" t="n">
+        <v>230215944068</v>
+      </c>
+      <c r="E92" t="n">
         <v>3738901386</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>192014335677</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>3650952781</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>5419188637</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>19893639051</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>5498926536</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>619425594</v>
       </c>
       <c r="D93" t="n">
+        <v>750489152</v>
+      </c>
+      <c r="E93" t="n">
         <v>12565194</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>618616949</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>17098180</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>30091407</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>52195322</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>19922100</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>627294304</v>
       </c>
       <c r="D94" t="n">
+        <v>761684020</v>
+      </c>
+      <c r="E94" t="n">
         <v>12881231</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>627434398</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>17717816</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>30478349</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>52968132</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>20204094</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>635005673</v>
       </c>
       <c r="D95" t="n">
+        <v>772651698</v>
+      </c>
+      <c r="E95" t="n">
         <v>13154047</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>635618595</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>18196543</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>31020679</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>54156846</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>20504988</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>640645390</v>
       </c>
       <c r="D96" t="n">
+        <v>781672461</v>
+      </c>
+      <c r="E96" t="n">
         <v>13181733</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>642777258</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>18483989</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>31677494</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>54774994</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>20776993</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>646256276</v>
       </c>
       <c r="D97" t="n">
+        <v>788816832</v>
+      </c>
+      <c r="E97" t="n">
         <v>13207120</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>647612253</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>18888921</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>32540188</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>55526898</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>21041452</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>651908377</v>
       </c>
       <c r="D98" t="n">
+        <v>794080452</v>
+      </c>
+      <c r="E98" t="n">
         <v>13230566</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>651033378</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>19147019</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>33365991</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>55997439</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>21306059</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>658244710</v>
       </c>
       <c r="D99" t="n">
+        <v>800124585</v>
+      </c>
+      <c r="E99" t="n">
         <v>13298040</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>655397620</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>19365732</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>34324123</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>56169672</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>21569398</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>664352779</v>
       </c>
       <c r="D100" t="n">
+        <v>805388212</v>
+      </c>
+      <c r="E100" t="n">
         <v>13314837</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>659233243</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>19583115</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>35152424</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>56277092</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>21827501</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>670295504</v>
       </c>
       <c r="D101" t="n">
+        <v>811185384</v>
+      </c>
+      <c r="E101" t="n">
         <v>13379807</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>663602942</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>19818766</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>35846140</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>56497536</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>22040193</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>677345958</v>
       </c>
       <c r="D102" t="n">
+        <v>820303611</v>
+      </c>
+      <c r="E102" t="n">
         <v>13458964</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>670862750</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>20308604</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>36264567</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>57146938</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>22261788</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>684612462</v>
       </c>
       <c r="D103" t="n">
+        <v>829153709</v>
+      </c>
+      <c r="E103" t="n">
         <v>13716751</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>677931628</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>20708236</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>36658729</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>57658178</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>22480187</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>693672139</v>
       </c>
       <c r="D104" t="n">
+        <v>840191105</v>
+      </c>
+      <c r="E104" t="n">
         <v>13986561</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>686666535</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>21352653</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>36843285</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>58615418</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>22726653</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>408930273872</v>
       </c>
       <c r="D105" t="n">
+        <v>469987629357</v>
+      </c>
+      <c r="E105" t="n">
         <v>7637177623</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>391865458903</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>7532575136</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>11242640650</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>40455262567</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>11254514478</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>703759049</v>
       </c>
       <c r="D106" t="n">
+        <v>852586438</v>
+      </c>
+      <c r="E106" t="n">
         <v>14298703</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>696333629</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>21944214</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>37097683</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>59934326</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>22977883</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>711545108</v>
       </c>
       <c r="D107" t="n">
+        <v>861920491</v>
+      </c>
+      <c r="E107" t="n">
         <v>14576604</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>703036141</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>22512633</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>37434677</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>61155388</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>23205048</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>719422765</v>
       </c>
       <c r="D108" t="n">
+        <v>870908198</v>
+      </c>
+      <c r="E108" t="n">
         <v>14832890</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>709691179</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>22991818</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>37989985</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>61997810</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>23404516</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>726029532</v>
       </c>
       <c r="D109" t="n">
+        <v>878983143</v>
+      </c>
+      <c r="E109" t="n">
         <v>14861207</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>715721318</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>23460056</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>38872865</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>62442579</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>23625118</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>732352163</v>
       </c>
       <c r="D110" t="n">
+        <v>887098391</v>
+      </c>
+      <c r="E110" t="n">
         <v>14893447</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>721526617</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>24006413</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>39740653</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>63048673</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>23882588</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>737959357</v>
       </c>
       <c r="D111" t="n">
+        <v>893501576</v>
+      </c>
+      <c r="E111" t="n">
         <v>14930229</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>726166083</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>24199657</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>40595757</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>63493198</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>24116652</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>744013849</v>
       </c>
       <c r="D112" t="n">
+        <v>901442871</v>
+      </c>
+      <c r="E112" t="n">
         <v>14965864</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>732093881</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>24451538</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>41493316</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>64057178</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>24381094</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>750037868</v>
       </c>
       <c r="D113" t="n">
+        <v>909355873</v>
+      </c>
+      <c r="E113" t="n">
         <v>15009042</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>738277795</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>24778162</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>42366985</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>64281515</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>24642374</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>755969730</v>
       </c>
       <c r="D114" t="n">
+        <v>916983251</v>
+      </c>
+      <c r="E114" t="n">
         <v>15059508</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>744244587</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>25014422</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>43096248</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>64682595</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>24885891</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>762561179</v>
       </c>
       <c r="D115" t="n">
+        <v>924921522</v>
+      </c>
+      <c r="E115" t="n">
         <v>15151572</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>750402226</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>25504572</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>43773950</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>64984583</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>25104619</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>770899052</v>
       </c>
       <c r="D116" t="n">
+        <v>931918967</v>
+      </c>
+      <c r="E116" t="n">
         <v>15452232</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>755650556</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>25903645</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>44105334</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>65464373</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>25342827</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>780145940</v>
       </c>
       <c r="D117" t="n">
+        <v>938867186</v>
+      </c>
+      <c r="E117" t="n">
         <v>15805884</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>759997778</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>26645755</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>44400560</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>66420709</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>25596500</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>826755243336</v>
       </c>
       <c r="D118" t="n">
+        <v>950743746621</v>
+      </c>
+      <c r="E118" t="n">
         <v>15454192428</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>792484059596</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>15356563157</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>22976249313</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>81672488061</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>22800194066</v>
       </c>
     </row>
